--- a/Excel/1.Hello_World/10.Working_With_Multiple_Workbooks.xlsx
+++ b/Excel/1.Hello_World/10.Working_With_Multiple_Workbooks.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travi\Desktop\Courses\Excel Bootcamp\Multiple Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Confidential\code-recall\Excel\1.Hello_World\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EE31E8-827B-4E44-941B-083B15D1E31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF00698-6CD1-476C-84C2-CB692F86E1BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{65BABFAD-A6FD-41E3-B7AC-52AFD4BAFF51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{65BABFAD-A6FD-41E3-B7AC-52AFD4BAFF51}"/>
   </bookViews>
   <sheets>
     <sheet name="sales tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="flavor performance" sheetId="3" r:id="rId2"/>
+    <sheet name="sales tracker (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="22">
   <si>
     <t>passion fruit</t>
   </si>
@@ -101,12 +92,6 @@
   </si>
   <si>
     <t>apple</t>
-  </si>
-  <si>
-    <t>Sale Amount</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
   </si>
 </sst>
 </file>
@@ -469,21 +454,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E679655-6256-49CA-8C6F-E51E56341826}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.54296875" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" customWidth="1"/>
+    <col min="5" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -511,19 +498,12 @@
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2">
-        <f>SUM(J:J)</f>
-        <v>2500.4800000000014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -543,12 +523,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="3">
-        <f>D2*(IF(C2="Mainland",3,4)+COUNTA(E2:I2)*0.99)</f>
-        <v>19.950000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -573,12 +550,9 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J66" si="0">D3*(IF(C3="Mainland",3,4)+COUNTA(E3:I3)*0.99)</f>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -603,12 +577,9 @@
       <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -633,12 +604,9 @@
       <c r="H5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="0"/>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -663,12 +631,9 @@
       <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -696,12 +661,9 @@
       <c r="I7" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
-        <f t="shared" si="0"/>
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -726,12 +688,9 @@
       <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -756,12 +715,9 @@
       <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -786,12 +742,9 @@
       <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -819,12 +772,9 @@
       <c r="I11" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="0"/>
-        <v>44.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -849,12 +799,9 @@
       <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="0"/>
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -879,12 +826,9 @@
       <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -903,18 +847,12 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -939,12 +877,9 @@
       <c r="H15" t="s">
         <v>2</v>
       </c>
-      <c r="J15" s="3">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -972,12 +907,9 @@
       <c r="I16" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="3">
-        <f t="shared" si="0"/>
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1002,12 +934,9 @@
       <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1029,12 +958,9 @@
       <c r="H18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="3">
-        <f>D18*(IF(C18="Mainland",3,4)+COUNTA(E18:H18)*0.99)</f>
-        <v>27.88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1056,12 +982,9 @@
       <c r="H19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="3">
-        <f>D19*(IF(C19="Mainland",3,4)+COUNTA(E19:H19)*0.99)</f>
-        <v>34.85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1083,12 +1006,9 @@
       <c r="H20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="3">
-        <f>D20*(IF(C20="Mainland",3,4)+COUNTA(E20:H20)*0.99)</f>
-        <v>20.91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1116,12 +1036,9 @@
       <c r="I21" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="3">
-        <f t="shared" si="0"/>
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1149,12 +1066,9 @@
       <c r="I22" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <f t="shared" si="0"/>
-        <v>44.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1182,12 +1096,9 @@
       <c r="I23" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" si="0"/>
-        <v>23.85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1212,12 +1123,9 @@
       <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="3">
-        <f t="shared" si="0"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1242,12 +1150,9 @@
       <c r="I25" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="3">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1272,12 +1177,9 @@
       <c r="I26" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="3">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1305,12 +1207,9 @@
       <c r="I27" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3">
-        <f t="shared" si="0"/>
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1338,12 +1237,9 @@
       <c r="I28" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="3">
-        <f t="shared" si="0"/>
-        <v>23.85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1368,12 +1264,9 @@
       <c r="I29" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="3">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1401,12 +1294,9 @@
       <c r="I30" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="3">
-        <f t="shared" si="0"/>
-        <v>26.849999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1434,12 +1324,9 @@
       <c r="I31" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="3">
-        <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1464,12 +1351,9 @@
       <c r="I32" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="3">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1494,12 +1378,9 @@
       <c r="I33" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="3">
-        <f t="shared" si="0"/>
-        <v>27.84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1524,12 +1405,9 @@
       <c r="I34" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1557,12 +1435,9 @@
       <c r="I35" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="3">
-        <f t="shared" si="0"/>
-        <v>44.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1587,12 +1462,9 @@
       <c r="I36" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="3">
-        <f t="shared" si="0"/>
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1617,12 +1489,9 @@
       <c r="I37" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="3">
-        <f t="shared" si="0"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1647,12 +1516,9 @@
       <c r="I38" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="3">
-        <f t="shared" si="0"/>
-        <v>27.84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1677,12 +1543,9 @@
       <c r="I39" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="3">
-        <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1707,12 +1570,9 @@
       <c r="H40" t="s">
         <v>1</v>
       </c>
-      <c r="J40" s="3">
-        <f t="shared" si="0"/>
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1737,12 +1597,9 @@
       <c r="I41" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1767,12 +1624,9 @@
       <c r="I42" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="3">
-        <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1797,12 +1651,9 @@
       <c r="I43" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1827,12 +1678,9 @@
       <c r="I44" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="3">
-        <f t="shared" si="0"/>
-        <v>27.84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1860,12 +1708,9 @@
       <c r="I45" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="3">
-        <f t="shared" si="0"/>
-        <v>23.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1893,12 +1738,9 @@
       <c r="I46" t="s">
         <v>0</v>
       </c>
-      <c r="J46" s="3">
-        <f t="shared" si="0"/>
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1923,12 +1765,9 @@
       <c r="I47" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="3">
-        <f t="shared" si="0"/>
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1953,12 +1792,9 @@
       <c r="I48" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="3">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1983,12 +1819,9 @@
       <c r="I49" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="3">
-        <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2013,12 +1846,9 @@
       <c r="I50" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2043,12 +1873,9 @@
       <c r="I51" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="3">
-        <f t="shared" si="0"/>
-        <v>27.84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2076,12 +1903,9 @@
       <c r="I52" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
-        <f t="shared" si="0"/>
-        <v>44.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2106,12 +1930,9 @@
       <c r="I53" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="3">
-        <f t="shared" si="0"/>
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2136,12 +1957,9 @@
       <c r="H54" t="s">
         <v>3</v>
       </c>
-      <c r="J54" s="3">
-        <f t="shared" si="0"/>
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2166,12 +1984,9 @@
       <c r="H55" t="s">
         <v>1</v>
       </c>
-      <c r="J55" s="3">
-        <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2196,12 +2011,9 @@
       <c r="I56" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="3">
-        <f t="shared" si="0"/>
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2226,12 +2038,9 @@
       <c r="I57" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="3">
-        <f t="shared" si="0"/>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2256,12 +2065,9 @@
       <c r="I58" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="3">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2286,12 +2092,9 @@
       <c r="I59" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="3">
-        <f t="shared" si="0"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2316,12 +2119,9 @@
       <c r="I60" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="3">
-        <f t="shared" si="0"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2346,12 +2146,9 @@
       <c r="H61" t="s">
         <v>7</v>
       </c>
-      <c r="J61" s="3">
-        <f t="shared" si="0"/>
-        <v>13.92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2379,12 +2176,9 @@
       <c r="I62" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="3">
-        <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2409,12 +2203,9 @@
       <c r="I63" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="3">
-        <f t="shared" si="0"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2442,12 +2233,9 @@
       <c r="I64" t="s">
         <v>0</v>
       </c>
-      <c r="J64" s="3">
-        <f t="shared" si="0"/>
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2475,12 +2263,9 @@
       <c r="I65" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="3">
-        <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2505,12 +2290,9 @@
       <c r="I66" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="3">
-        <f t="shared" si="0"/>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2535,12 +2317,9 @@
       <c r="I67" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="3">
-        <f t="shared" ref="J67:J101" si="1">D67*(IF(C67="Mainland",3,4)+COUNTA(E67:I67)*0.99)</f>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2565,12 +2344,9 @@
       <c r="I68" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="3">
-        <f t="shared" si="1"/>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2598,12 +2374,9 @@
       <c r="I69" t="s">
         <v>7</v>
       </c>
-      <c r="J69" s="3">
-        <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2628,12 +2401,9 @@
       <c r="I70" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="3">
-        <f t="shared" si="1"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2661,12 +2431,9 @@
       <c r="I71" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="3">
-        <f t="shared" si="1"/>
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2691,12 +2458,9 @@
       <c r="I72" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="3">
-        <f t="shared" si="1"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2721,12 +2485,9 @@
       <c r="I73" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="3">
-        <f t="shared" si="1"/>
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2754,12 +2515,9 @@
       <c r="I74" t="s">
         <v>1</v>
       </c>
-      <c r="J74" s="3">
-        <f t="shared" si="1"/>
-        <v>26.849999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2784,12 +2542,9 @@
       <c r="I75" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="3">
-        <f t="shared" si="1"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2814,12 +2569,9 @@
       <c r="H76" t="s">
         <v>1</v>
       </c>
-      <c r="J76" s="3">
-        <f t="shared" si="1"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2844,12 +2596,9 @@
       <c r="I77" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="3">
-        <f t="shared" si="1"/>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2877,12 +2626,9 @@
       <c r="I78" t="s">
         <v>1</v>
       </c>
-      <c r="J78" s="3">
-        <f t="shared" si="1"/>
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2910,12 +2656,9 @@
       <c r="I79" t="s">
         <v>0</v>
       </c>
-      <c r="J79" s="3">
-        <f t="shared" si="1"/>
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2940,12 +2683,9 @@
       <c r="I80" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="3">
-        <f t="shared" si="1"/>
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2973,12 +2713,9 @@
       <c r="I81" t="s">
         <v>1</v>
       </c>
-      <c r="J81" s="3">
-        <f t="shared" si="1"/>
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3003,12 +2740,9 @@
       <c r="I82" t="s">
         <v>17</v>
       </c>
-      <c r="J82" s="3">
-        <f t="shared" si="1"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3033,12 +2767,9 @@
       <c r="I83" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="3">
-        <f t="shared" si="1"/>
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3063,12 +2794,9 @@
       <c r="I84" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="3">
-        <f t="shared" si="1"/>
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3093,12 +2821,9 @@
       <c r="I85" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="3">
-        <f t="shared" si="1"/>
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3123,12 +2848,9 @@
       <c r="I86" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="3">
-        <f t="shared" si="1"/>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3153,12 +2875,9 @@
       <c r="I87" t="s">
         <v>17</v>
       </c>
-      <c r="J87" s="3">
-        <f t="shared" si="1"/>
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3186,12 +2905,9 @@
       <c r="I88" t="s">
         <v>7</v>
       </c>
-      <c r="J88" s="3">
-        <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3216,12 +2932,9 @@
       <c r="I89" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="3">
-        <f t="shared" si="1"/>
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3249,12 +2962,9 @@
       <c r="I90" t="s">
         <v>7</v>
       </c>
-      <c r="J90" s="3">
-        <f t="shared" si="1"/>
-        <v>44.75</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3279,12 +2989,9 @@
       <c r="I91" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="3">
-        <f t="shared" si="1"/>
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3309,12 +3016,9 @@
       <c r="I92" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="3">
-        <f t="shared" si="1"/>
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3339,12 +3043,9 @@
       <c r="I93" t="s">
         <v>17</v>
       </c>
-      <c r="J93" s="3">
-        <f t="shared" si="1"/>
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3372,12 +3073,9 @@
       <c r="I94" t="s">
         <v>2</v>
       </c>
-      <c r="J94" s="3">
-        <f t="shared" si="1"/>
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3402,12 +3100,9 @@
       <c r="I95" t="s">
         <v>17</v>
       </c>
-      <c r="J95" s="3">
-        <f t="shared" si="1"/>
-        <v>20.88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3435,12 +3130,9 @@
       <c r="I96" t="s">
         <v>7</v>
       </c>
-      <c r="J96" s="3">
-        <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3465,12 +3157,9 @@
       <c r="I97" t="s">
         <v>17</v>
       </c>
-      <c r="J97" s="3">
-        <f t="shared" si="1"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3495,12 +3184,9 @@
       <c r="I98" t="s">
         <v>17</v>
       </c>
-      <c r="J98" s="3">
-        <f t="shared" si="1"/>
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3525,12 +3211,9 @@
       <c r="I99" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="3">
-        <f t="shared" si="1"/>
-        <v>6.96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3555,12 +3238,9 @@
       <c r="I100" t="s">
         <v>17</v>
       </c>
-      <c r="J100" s="3">
-        <f t="shared" si="1"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3588,10 +3268,7 @@
       <c r="I101" t="s">
         <v>21</v>
       </c>
-      <c r="J101" s="3">
-        <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
-      </c>
+      <c r="J101" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3601,75 +3278,2830 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858BC16C-8D35-4ABB-8A92-D9FDA1517D98}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98EDB86-3A2A-471D-AD5C-985A3557CD87}">
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0.15636363636363637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.14181818181818182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.10181818181818182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.18181818181818182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.13818181818181818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.14181818181818182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>0.13818181818181818</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>